--- a/Proyectos/2016/9/P1910 - 50TimbresEcodex, Grecia de la Paz Diaz_MO/P1910 - 50TimbresEcodex, Grecia de la Paz Diaz_MO.xlsx
+++ b/Proyectos/2016/9/P1910 - 50TimbresEcodex, Grecia de la Paz Diaz_MO/P1910 - 50TimbresEcodex, Grecia de la Paz Diaz_MO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Deal</t>
   </si>
@@ -311,7 +311,13 @@
     <t>ACTIVAR LOS TIMBRES A EMPRESA:</t>
   </si>
   <si>
-    <t>CHIHUAHUA CHIC</t>
+    <t>CCI140619NT4</t>
+  </si>
+  <si>
+    <t>prison.masarik@gmail.com</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA CHIC COMPANY SA DE CV</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -867,6 +873,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,7 +956,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1307,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1328,159 +1336,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="64">
         <v>44400</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
@@ -1495,173 +1503,173 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1">
       <c r="A19" s="10"/>
@@ -1767,27 +1775,27 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="60" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="57" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="65" t="s">
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:16" ht="87" customHeight="1">
       <c r="A27" s="29" t="s">
@@ -1860,14 +1868,14 @@
       <c r="L28" s="6"/>
       <c r="M28" s="33"/>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O28" s="38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P28" s="35">
         <f>N28*(1-O28)</f>
-        <v>0</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2249,47 +2257,56 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="N43" s="39" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="N43" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="39"/>
+      <c r="O43" s="42"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
-        <v>0</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="N44" s="39" t="s">
+      <c r="A44" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="N44" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="39"/>
+      <c r="O44" s="42"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="N45" s="39" t="s">
+      <c r="A45" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="N45" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="39"/>
+      <c r="O45" s="42"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
-        <v>0</v>
-      </c>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2323,10 +2340,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="A46" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
